--- a/docs/BOM/ProMicro_TEST.xlsx
+++ b/docs/BOM/ProMicro_TEST.xlsx
@@ -145,7 +145,7 @@
     <t>BoM Date:</t>
   </si>
   <si>
-    <t>Fri Aug 14 10:28:50 2020</t>
+    <t>Fri Aug 14 12:43:37 2020</t>
   </si>
   <si>
     <t>Schematic Source:</t>

--- a/docs/BOM/ProMicro_TEST.xlsx
+++ b/docs/BOM/ProMicro_TEST.xlsx
@@ -145,7 +145,7 @@
     <t>BoM Date:</t>
   </si>
   <si>
-    <t>Fri Aug 14 12:43:37 2020</t>
+    <t>Fri Aug 14 14:26:39 2020</t>
   </si>
   <si>
     <t>Schematic Source:</t>
